--- a/Pricess2.xlsx
+++ b/Pricess2.xlsx
@@ -3001,15 +3001,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L2" s="88" t="inlineStr">
-        <is>
-          <t>77.62</t>
-        </is>
-      </c>
-      <c r="M2" s="88" t="inlineStr">
-        <is>
-          <t>78.54</t>
-        </is>
+      <c r="L2" s="88" t="n">
+        <v>77.73999999999998</v>
+      </c>
+      <c r="M2" s="88" t="n">
+        <v>76.36</v>
       </c>
       <c r="N2" s="88" t="inlineStr">
         <is>
@@ -3049,15 +3045,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L3" s="96" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="M3" s="97" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
+      <c r="L3" s="96" t="n">
+        <v>86.18999999999998</v>
+      </c>
+      <c r="M3" s="97" t="n">
+        <v>84.66</v>
       </c>
       <c r="N3" s="97" t="inlineStr">
         <is>
@@ -3141,15 +3133,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L5" s="96" t="inlineStr">
-        <is>
-          <t>143.44</t>
-        </is>
-      </c>
-      <c r="M5" s="97" t="inlineStr">
-        <is>
-          <t>145.14</t>
-        </is>
+      <c r="L5" s="96" t="n">
+        <v>143.65</v>
+      </c>
+      <c r="M5" s="97" t="n">
+        <v>141.1</v>
       </c>
       <c r="N5" s="98" t="inlineStr">
         <is>
@@ -3189,15 +3177,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L6" s="89" t="inlineStr">
-        <is>
-          <t>81.00</t>
-        </is>
-      </c>
-      <c r="M6" s="102" t="inlineStr">
-        <is>
-          <t>81.96</t>
-        </is>
+      <c r="L6" s="89" t="n">
+        <v>81.11999999999999</v>
+      </c>
+      <c r="M6" s="102" t="n">
+        <v>79.68000000000001</v>
       </c>
       <c r="N6" s="104" t="inlineStr">
         <is>
@@ -3369,15 +3353,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L10" s="89" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M10" s="102" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+      <c r="L10" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="102" t="n">
+        <v>0</v>
       </c>
       <c r="N10" s="103" t="inlineStr">
         <is>
@@ -3417,15 +3397,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L11" s="96" t="inlineStr">
-        <is>
-          <t>87.75</t>
-        </is>
-      </c>
-      <c r="M11" s="97" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
+      <c r="L11" s="96" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="M11" s="97" t="n">
+        <v>86.32000000000001</v>
       </c>
       <c r="N11" s="98" t="inlineStr">
         <is>
@@ -3465,15 +3441,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L12" s="89" t="inlineStr">
-        <is>
-          <t>131.62</t>
-        </is>
-      </c>
-      <c r="M12" s="102" t="inlineStr">
-        <is>
-          <t>133.19</t>
-        </is>
+      <c r="L12" s="89" t="n">
+        <v>131.82</v>
+      </c>
+      <c r="M12" s="102" t="n">
+        <v>129.48</v>
       </c>
       <c r="N12" s="103" t="inlineStr">
         <is>
@@ -3513,15 +3485,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L13" s="96" t="inlineStr">
-        <is>
-          <t>135.00</t>
-        </is>
-      </c>
-      <c r="M13" s="97" t="inlineStr">
-        <is>
-          <t>136.60</t>
-        </is>
+      <c r="L13" s="96" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="M13" s="97" t="n">
+        <v>132.8</v>
       </c>
       <c r="N13" s="98" t="inlineStr">
         <is>
@@ -3561,15 +3529,11 @@
           <t>evro</t>
         </is>
       </c>
-      <c r="L14" s="89" t="inlineStr">
-        <is>
-          <t>143.44</t>
-        </is>
-      </c>
-      <c r="M14" s="102" t="inlineStr">
-        <is>
-          <t>145.14</t>
-        </is>
+      <c r="L14" s="89" t="n">
+        <v>143.65</v>
+      </c>
+      <c r="M14" s="102" t="n">
+        <v>141.1</v>
       </c>
       <c r="N14" s="103" t="inlineStr">
         <is>
